--- a/Docs/resolved/Lab01_ReviewReport.xlsx
+++ b/Docs/resolved/Lab01_ReviewReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UBB\SEM_VI\VVSS\Lab\EchipaSocrates\Docs\resolved\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADA1133-7AC1-474C-A9B2-816BD0E38708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,12 +18,25 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -244,13 +263,22 @@
   </si>
   <si>
     <t>Sarbu Adrian-Mihai</t>
+  </si>
+  <si>
+    <t>ArrayTaskList.java / 18, 21</t>
+  </si>
+  <si>
+    <t>LinkedTaskList.java / 69-82</t>
+  </si>
+  <si>
+    <t>TaskIO.java / 121 - 133</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -451,7 +479,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -463,9 +490,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -505,10 +533,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,6 +545,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -566,7 +596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,9 +628,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,6 +680,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -807,29 +873,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -840,7 +906,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>19</v>
       </c>
@@ -848,61 +914,61 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="C5" s="14" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="27"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -910,14 +976,14 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -927,11 +993,11 @@
       <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -943,7 +1009,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -956,7 +1022,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -969,7 +1035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -978,7 +1044,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -987,7 +1053,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -996,7 +1062,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1005,7 +1071,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1014,86 +1080,83 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="C27" s="12" t="s">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1113,28 +1176,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J5"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="22" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1145,7 +1208,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
@@ -1153,25 +1216,25 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1179,17 +1242,17 @@
         <v>15</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1197,17 +1260,17 @@
         <v>12</v>
       </c>
       <c r="E5" s="30"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1215,14 +1278,14 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1236,7 +1299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1248,7 +1311,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1261,7 +1324,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1274,7 +1337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1283,7 +1346,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1292,7 +1355,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1301,7 +1364,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1310,7 +1373,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1319,7 +1382,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1328,7 +1391,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1337,7 +1400,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1346,7 +1409,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1355,7 +1418,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1364,7 +1427,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1373,7 +1436,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1382,7 +1445,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1391,7 +1454,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1400,14 +1463,11 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5">
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="C28" s="12" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1" t="s">
         <v>50</v>
       </c>
@@ -1427,29 +1487,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1460,7 +1520,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
@@ -1468,61 +1528,61 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="31"/>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="C5" s="17" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="33"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1530,14 +1590,14 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1551,19 +1611,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1571,12 +1633,14 @@
       <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1584,12 +1648,14 @@
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1598,7 +1664,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1607,7 +1673,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1616,7 +1682,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1625,7 +1691,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1634,7 +1700,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1643,7 +1709,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1652,7 +1718,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1661,7 +1727,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1670,7 +1736,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1679,7 +1745,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1688,7 +1754,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1697,7 +1763,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1706,7 +1772,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1715,7 +1781,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1724,7 +1790,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1733,7 +1799,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1742,7 +1808,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1751,14 +1817,11 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="C32" s="12" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1" t="s">
         <v>50</v>
       </c>
@@ -1778,30 +1841,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1812,7 +1875,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>31</v>
       </c>
@@ -1820,66 +1883,66 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="F6" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1896,7 +1959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1913,7 +1976,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="57.6">
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1931,7 +1994,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="43.2">
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1949,7 +2012,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="43.2">
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1967,7 +2030,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="158.4">
+    <row r="14" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1985,7 +2048,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1995,7 +2058,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2005,7 +2068,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2015,7 +2078,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2025,7 +2088,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2035,7 +2098,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2045,7 +2108,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2055,7 +2118,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2065,7 +2128,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2075,7 +2138,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2085,7 +2148,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2095,7 +2158,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2105,7 +2168,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2115,7 +2178,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2125,7 +2188,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2135,7 +2198,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2145,16 +2208,13 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C32" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
-      <c r="F32" s="19"/>
+      <c r="F32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
